--- a/Template_LTI.xlsx
+++ b/Template_LTI.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Infva06621\Share Folder\ManualTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share Folder\ManualTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario and Test Case" sheetId="1" r:id="rId1"/>
     <sheet name="Defect Details" sheetId="2" r:id="rId2"/>
     <sheet name="RTM" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Test Scenario and Test Case'!$A$1:$M$44</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>Test Scenario and Test Case Details</t>
-  </si>
-  <si>
-    <t>Requirement Traceability Metrix (RTM)</t>
   </si>
   <si>
     <t>Defect Fixed Pass/Fail</t>
@@ -132,12 +132,168 @@
   <si>
     <t>Very High</t>
   </si>
+  <si>
+    <t>SC_Login</t>
+  </si>
+  <si>
+    <t>To test login functionality</t>
+  </si>
+  <si>
+    <t>Login_001</t>
+  </si>
+  <si>
+    <t>To test login with valid 
+userName &amp; valid Password</t>
+  </si>
+  <si>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t>Login Page should display</t>
+  </si>
+  <si>
+    <t>Enter User name</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>Entered UserName should 
+display</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Newuser123</t>
+  </si>
+  <si>
+    <t>Entered Password should 
+be encrypted</t>
+  </si>
+  <si>
+    <t>Click on Login Button</t>
+  </si>
+  <si>
+    <t>Home Page should display</t>
+  </si>
+  <si>
+    <t>Click on Logout</t>
+  </si>
+  <si>
+    <t>Login_002</t>
+  </si>
+  <si>
+    <t>To test login with valid 
+userName &amp; invalid Password</t>
+  </si>
+  <si>
+    <t>Enter valid Password Error 
+Massage should display</t>
+  </si>
+  <si>
+    <t>Login_003</t>
+  </si>
+  <si>
+    <t>To test login with invalid 
+userName &amp; invalid Password</t>
+  </si>
+  <si>
+    <t>Enter valid UserName Error 
+Massage should display</t>
+  </si>
+  <si>
+    <t>SC_SIGN_UP</t>
+  </si>
+  <si>
+    <t>TO check sign-up functionality</t>
+  </si>
+  <si>
+    <t>SIGN_UP_01</t>
+  </si>
+  <si>
+    <t>To Test sign up with all valid data</t>
+  </si>
+  <si>
+    <t>Sign up page should display</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>Entered Name should display</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>Entered Last Name should display</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>Entered Email ID should display</t>
+  </si>
+  <si>
+    <t>Encypted Password
+should display</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Entered Mobile Number should display</t>
+  </si>
+  <si>
+    <t>Select Birth Month</t>
+  </si>
+  <si>
+    <t>Selected Month should display</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Enter Day</t>
+  </si>
+  <si>
+    <t>Entered Day should display</t>
+  </si>
+  <si>
+    <t>Enter Year</t>
+  </si>
+  <si>
+    <t>Entered Year should display</t>
+  </si>
+  <si>
+    <t>Click on Continue</t>
+  </si>
+  <si>
+    <t>Sucessfully Registred 
+Message should display</t>
+  </si>
+  <si>
+    <t>SIGN_UP_02</t>
+  </si>
+  <si>
+    <t>To Test sign up with all invalid data</t>
+  </si>
+  <si>
+    <t>Entered invalid Name should display</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +313,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +378,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,12 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,8 +421,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,47 +748,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -622,126 +807,202 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>43529</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -754,50 +1015,80 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -810,134 +1101,209 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1988</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -950,32 +1316,85 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1234</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="12">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="13">
+        <v>23</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="12">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="12">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L30">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I26" r:id="rId1" display="23@12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="86" orientation="portrait" r:id="rId2"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="12" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -983,40 +1402,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1027,19 +1446,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
@@ -1049,248 +1468,248 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>43528</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1322,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,15 +1755,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1363,10 +1782,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,7 +1816,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
